--- a/results_module/DT/125Hz_2classes/res_hyperopt.xlsx
+++ b/results_module/DT/125Hz_2classes/res_hyperopt.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.37092342466829376, 'min_samples_split': 0.5036830248430438, 'min_weight_fraction_leaf': 0.117452368873046}</t>
+          <t>{'max_depth': 57, 'max_features': 0.5614343423693927, 'min_samples_split': 0.1145891664962873, 'min_weight_fraction_leaf': 0.038401267514703796}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 75, 'max_features': 0.13041314695275993, 'min_samples_split': 0.24009734221742443, 'min_weight_fraction_leaf': 0.21446936461070304}</t>
+          <t>{'max_depth': 34, 'max_features': 0.394191211321866, 'min_samples_split': 0.4352730660423739, 'min_weight_fraction_leaf': 0.00380760974043326}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 95, 'max_features': 0.4573544642627637, 'min_samples_split': 0.08436272775899611, 'min_weight_fraction_leaf': 0.21719595529828417}</t>
+          <t>{'max_depth': 11, 'max_features': 0.4179497204777689, 'min_samples_split': 0.38596727532901715, 'min_weight_fraction_leaf': 0.04536135881131431}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.14642284201175254, 'min_samples_split': 0.47666583034806215, 'min_weight_fraction_leaf': 0.28940520170655204}</t>
+          <t>{'max_depth': 12, 'max_features': 0.8465488930953977, 'min_samples_split': 0.7123129563406828, 'min_weight_fraction_leaf': 0.1991587974393494}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 79, 'max_features': 0.581224228357952, 'min_samples_split': 0.6925804404975405, 'min_weight_fraction_leaf': 0.07621547944149692}</t>
+          <t>{'max_depth': 40, 'max_features': 0.4302068334336562, 'min_samples_split': 0.6480418953696844, 'min_weight_fraction_leaf': 0.30469992083130876}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 65, 'max_features': 0.7393490680738528, 'min_samples_split': 0.3542669020222003, 'min_weight_fraction_leaf': 0.07933804881892936}</t>
+          <t>{'max_depth': 88, 'max_features': 0.8921600094558372, 'min_samples_split': 0.11938693603928166, 'min_weight_fraction_leaf': 0.3083921205763658}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 93, 'max_features': 0.8977343451237737, 'min_samples_split': 0.18942384699487866, 'min_weight_fraction_leaf': 0.22552581716008535}</t>
+          <t>{'max_depth': 16, 'max_features': 0.4701798334465141, 'min_samples_split': 0.10469527552708939, 'min_weight_fraction_leaf': 0.1711516248680816}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 43, 'max_features': 0.31142970975977796, 'min_samples_split': 0.0011116897236396858, 'min_weight_fraction_leaf': 0.16325532249767655}</t>
+          <t>{'max_depth': 37, 'max_features': 0.5570288469256685, 'min_samples_split': 0.07407448574948429, 'min_weight_fraction_leaf': 0.1408549717679678}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 79, 'max_features': 0.8791237738513489, 'min_samples_split': 0.5766264855075334, 'min_weight_fraction_leaf': 0.07631334185624195}</t>
+          <t>{'max_depth': 35, 'max_features': 0.6004830997638865, 'min_samples_split': 0.49801168719752276, 'min_weight_fraction_leaf': 0.30576298227129606}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 26, 'max_features': 0.7836044841302062, 'min_samples_split': 0.6409409869801442, 'min_weight_fraction_leaf': 0.043954605873067154}</t>
+          <t>{'max_depth': 94, 'max_features': 0.585278617828072, 'min_samples_split': 0.9749488517417655, 'min_weight_fraction_leaf': 0.314768634548526}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 82, 'max_features': 0.6880614432991575, 'min_samples_split': 0.9350090166571781, 'min_weight_fraction_leaf': 0.0186162546599139}</t>
+          <t>{'max_depth': 24, 'max_features': 0.4152926842601536, 'min_samples_split': 0.9573416142242667, 'min_weight_fraction_leaf': 0.194563020428623}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 91, 'max_features': 0.23417714030413908, 'min_samples_split': 0.9540809366895491, 'min_weight_fraction_leaf': 0.2851802510568714}</t>
+          <t>{'max_depth': 84, 'max_features': 0.8639729781439691, 'min_samples_split': 0.03281287876006028, 'min_weight_fraction_leaf': 0.23280607730507757}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 35, 'max_features': 0.7864769358277369, 'min_samples_split': 0.9449582383645962, 'min_weight_fraction_leaf': 0.25463807826186086}</t>
+          <t>{'max_depth': 65, 'max_features': 0.7337370069332946, 'min_samples_split': 0.04282249518250627, 'min_weight_fraction_leaf': 0.09701306932689435}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 47, 'max_features': 0.3272573539280546, 'min_samples_split': 0.05780288456842025, 'min_weight_fraction_leaf': 0.17164771274156676}</t>
+          <t>{'max_depth': 63, 'max_features': 0.07539714997211054, 'min_samples_split': 0.3739352959118416, 'min_weight_fraction_leaf': 0.05247097029197961}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 73, 'max_features': 0.8473998993565195, 'min_samples_split': 0.7276669352810505, 'min_weight_fraction_leaf': 0.2410524100049447}</t>
+          <t>{'max_depth': 82, 'max_features': 0.7575376661436197, 'min_samples_split': 0.321210517886335, 'min_weight_fraction_leaf': 0.14130736966630253}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
